--- a/Razdel4.xlsx
+++ b/Razdel4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\КП ЗОСНД\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AC2497-7BF5-4523-A542-0071C4D162E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87B546C-9554-4416-B9A9-540A4B39F01A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="-375" windowWidth="28110" windowHeight="16440" xr2:uid="{36664035-5D67-4F17-B08C-D9D3F4097FB6}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="16200" xr2:uid="{36664035-5D67-4F17-B08C-D9D3F4097FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,8 +429,8 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3">
-        <f>1027 * 6</f>
-        <v>6162</v>
+        <f>1027 * 5</f>
+        <v>5135</v>
       </c>
       <c r="F3">
         <f>23*0.9</f>
@@ -557,7 +557,7 @@
       </c>
       <c r="F16">
         <f>((B20+F10+C22)/100)*10</f>
-        <v>5322.3800709999996</v>
+        <v>5216.5990710000005</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
       </c>
       <c r="F19">
         <f>B20+F10+C22+F16</f>
-        <v>58546.180781000003</v>
+        <v>57382.589781000002</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
       </c>
       <c r="B20">
         <f>SUM(B1:B19) +998</f>
-        <v>49058.457000000002</v>
+        <v>48031.457000000002</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
       </c>
       <c r="C22">
         <f>0.03*B20</f>
-        <v>1471.75371</v>
+        <v>1440.94371</v>
       </c>
     </row>
   </sheetData>
